--- a/data/trans_bre/P59A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.446695878370442</v>
+        <v>-6.829512646555397</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.18181223254688</v>
+        <v>-8.81458530917811</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.040908922144844</v>
+        <v>-7.712382208984367</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.291442720392793</v>
+        <v>-9.989833414256742</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6960793780812452</v>
+        <v>-0.6527968160728831</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.627288063390196</v>
+        <v>-0.6283613588986425</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6585834772686077</v>
+        <v>-0.6328332474814766</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6889166769126456</v>
+        <v>-0.6981907549238422</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02392208421008477</v>
+        <v>0.2550503559470109</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.3138656253833315</v>
+        <v>-0.7873620591491748</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1556884593589281</v>
+        <v>0.7640961513957769</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.3863654472134597</v>
+        <v>0.01120528085919493</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.03242250475076621</v>
+        <v>0.06611907576825231</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007912771483586619</v>
+        <v>-0.08818146878477033</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03906175471178479</v>
+        <v>0.129951418953096</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.009501752277381649</v>
+        <v>0.07104549817310302</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.961885861306017</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.932303927573592</v>
+        <v>-1.932303927573595</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1667072929831931</v>
@@ -749,7 +749,7 @@
         <v>-0.1045534241032975</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1131889911180628</v>
+        <v>-0.1131889911180629</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.373755031640298</v>
+        <v>-6.163025591740436</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.306563630483431</v>
+        <v>-2.351318957523227</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-6.070220076629354</v>
+        <v>-5.418954765001229</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.733387122652822</v>
+        <v>-5.549819418553216</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3888355944439877</v>
+        <v>-0.3794370278063162</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1399498741896906</v>
+        <v>-0.1329461108920238</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2890142171452394</v>
+        <v>-0.2678562987019659</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3010038717416484</v>
+        <v>-0.2848242010899698</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.35944433671547</v>
+        <v>1.243303161083851</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.619069778359142</v>
+        <v>5.479893418451121</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.568663995954465</v>
+        <v>1.783413538556172</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.496392953822477</v>
+        <v>1.448894064662402</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1080282043445438</v>
+        <v>0.1155766675989548</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3952521469363992</v>
+        <v>0.3981277209280204</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0957737385559934</v>
+        <v>0.1046493747317837</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.09955304904411381</v>
+        <v>0.09574872188059809</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-3.88379900714827</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.05400519038982</v>
+        <v>1.054005190389815</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.07957124151804099</v>
@@ -849,7 +849,7 @@
         <v>-0.1795531616194138</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.05478677509945547</v>
+        <v>0.05478677509945518</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.238706349307451</v>
+        <v>-8.842997002401846</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.074695889564606</v>
+        <v>-5.55693068296554</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.06983461594294</v>
+        <v>-11.15381535751263</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.217778105849246</v>
+        <v>-5.963996392652112</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3756961458301822</v>
+        <v>-0.3957478596901396</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2673348597708398</v>
+        <v>-0.2679836903189949</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4320224762705626</v>
+        <v>-0.4394959972095994</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2626293487692231</v>
+        <v>-0.256822543952191</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.740296800950522</v>
+        <v>5.875746146934475</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.51592452364826</v>
+        <v>12.36175547994056</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.427142241853693</v>
+        <v>3.230021318713265</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.97576478496653</v>
+        <v>7.291624673946499</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3968018743614694</v>
+        <v>0.3759410050461602</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7817177813486288</v>
+        <v>0.8310838022148208</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.196643383285931</v>
+        <v>0.1896450942564117</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4762682176137616</v>
+        <v>0.4604144450158389</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-3.361800028186537</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.557956135127204</v>
+        <v>-2.557956135127207</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2525382857645517</v>
@@ -949,7 +949,7 @@
         <v>-0.1919975053693011</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1563586374317805</v>
+        <v>-0.1563586374317807</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.913113556012548</v>
+        <v>-6.175897103345701</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.884914449528439</v>
+        <v>-3.92221473053644</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.179417999212081</v>
+        <v>-5.960185674479215</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.360334152862243</v>
+        <v>-5.389352602490321</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3961583765360256</v>
+        <v>-0.396289390896632</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2279210250584937</v>
+        <v>-0.233463926268424</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3228997159114541</v>
+        <v>-0.3120538450471081</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2955856664075884</v>
+        <v>-0.2919493579845337</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.7260569705490457</v>
+        <v>-0.9473429071810846</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.841119081402985</v>
+        <v>1.545594109728627</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.6541906017373824</v>
+        <v>-0.7390400662214369</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.01456528566061887</v>
+        <v>0.2151255094980902</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.05845348082100316</v>
+        <v>-0.0724978203360121</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1337441349157036</v>
+        <v>0.1084496733016402</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.04305034843569729</v>
+        <v>-0.03830083124972258</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.004329144594352168</v>
+        <v>0.01752693900963469</v>
       </c>
     </row>
     <row r="16">
